--- a/doc/ref_table_per.xlsx
+++ b/doc/ref_table_per.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\neonet\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D9B8CC3-2F76-49FD-AF23-9F02416BDE48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB99150-0532-4CEB-BDA1-8D1C5884E142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2031" uniqueCount="904">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2053" uniqueCount="904">
   <si>
     <t>period</t>
   </si>
@@ -3080,8 +3080,8 @@
   <dimension ref="A1:C1033"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C20" sqref="C20"/>
+      <pane ySplit="1" topLeftCell="A914" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I927" sqref="I927"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3637,6 +3637,9 @@
       <c r="B71" t="s">
         <v>71</v>
       </c>
+      <c r="C71" s="1" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
@@ -3645,6 +3648,9 @@
       <c r="B72" t="s">
         <v>72</v>
       </c>
+      <c r="C72" s="1" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
@@ -3653,6 +3659,9 @@
       <c r="B73" t="s">
         <v>73</v>
       </c>
+      <c r="C73" s="1" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
@@ -3660,6 +3669,9 @@
       </c>
       <c r="B74" t="s">
         <v>74</v>
+      </c>
+      <c r="C74" s="1" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
@@ -10370,6 +10382,9 @@
       <c r="B904" t="s">
         <v>481</v>
       </c>
+      <c r="C904" s="1" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="905" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A905" t="s">
@@ -10378,6 +10393,9 @@
       <c r="B905" t="s">
         <v>481</v>
       </c>
+      <c r="C905" s="1" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="906" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A906" t="s">
@@ -10386,11 +10404,17 @@
       <c r="B906" t="s">
         <v>71</v>
       </c>
+      <c r="C906" s="1" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="907" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B907" t="s">
         <v>71</v>
       </c>
+      <c r="C907" s="1" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="908" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A908" t="s">
@@ -10407,6 +10431,9 @@
       <c r="B909" t="s">
         <v>481</v>
       </c>
+      <c r="C909" s="1" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="910" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A910" t="s">
@@ -10415,6 +10442,9 @@
       <c r="B910" t="s">
         <v>481</v>
       </c>
+      <c r="C910" s="1" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="911" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A911" t="s">
@@ -10434,76 +10464,91 @@
       <c r="B912" t="s">
         <v>481</v>
       </c>
-    </row>
-    <row r="913" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C912" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="913" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B913" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="914" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C913" s="1" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="914" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B914" t="s">
         <v>802</v>
       </c>
-    </row>
-    <row r="915" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C914" s="1" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="915" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B915" t="s">
         <v>803</v>
       </c>
     </row>
-    <row r="916" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="916" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A916" t="s">
         <v>804</v>
       </c>
       <c r="B916" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="917" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C916" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="917" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B917" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="918" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="918" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B918" t="s">
         <v>805</v>
       </c>
     </row>
-    <row r="919" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="919" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B919" t="s">
         <v>213</v>
       </c>
     </row>
-    <row r="920" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="920" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B920" t="s">
         <v>806</v>
       </c>
     </row>
-    <row r="921" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="921" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B921" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="922" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="922" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B922" t="s">
         <v>807</v>
       </c>
     </row>
-    <row r="923" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="923" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B923" t="s">
         <v>808</v>
       </c>
     </row>
-    <row r="924" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="924" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B924" t="s">
         <v>809</v>
       </c>
-    </row>
-    <row r="925" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C924" s="1" t="s">
+        <v>897</v>
+      </c>
+    </row>
+    <row r="925" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B925" t="s">
         <v>810</v>
       </c>
     </row>
-    <row r="926" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="926" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A926" t="s">
         <v>811</v>
       </c>
@@ -10511,12 +10556,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="927" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="927" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B927" t="s">
         <v>812</v>
       </c>
     </row>
-    <row r="928" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="928" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A928" t="s">
         <v>813</v>
       </c>
@@ -10531,6 +10576,9 @@
       <c r="B929" t="s">
         <v>55</v>
       </c>
+      <c r="C929" s="1" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="930" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A930" t="s">
@@ -10539,6 +10587,9 @@
       <c r="B930" t="s">
         <v>61</v>
       </c>
+      <c r="C930" s="1" t="s">
+        <v>901</v>
+      </c>
     </row>
     <row r="931" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A931" t="s">
@@ -10547,6 +10598,9 @@
       <c r="B931" t="s">
         <v>55</v>
       </c>
+      <c r="C931" s="1" t="s">
+        <v>896</v>
+      </c>
     </row>
     <row r="932" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A932" t="s">
@@ -10570,6 +10624,9 @@
       <c r="B935" t="s">
         <v>215</v>
       </c>
+      <c r="C935" s="1" t="s">
+        <v>902</v>
+      </c>
     </row>
     <row r="936" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A936" t="s">
@@ -10578,6 +10635,9 @@
       <c r="B936" t="s">
         <v>225</v>
       </c>
+      <c r="C936" s="1" t="s">
+        <v>897</v>
+      </c>
     </row>
     <row r="937" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B937" t="s">
@@ -10588,10 +10648,16 @@
       <c r="B938" t="s">
         <v>822</v>
       </c>
+      <c r="C938" s="1" t="s">
+        <v>895</v>
+      </c>
     </row>
     <row r="939" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B939" t="s">
         <v>823</v>
+      </c>
+      <c r="C939" s="1" t="s">
+        <v>895</v>
       </c>
     </row>
     <row r="940" spans="1:3" x14ac:dyDescent="0.3">

--- a/doc/ref_table_per.xlsx
+++ b/doc/ref_table_per.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Rprojects\neonet\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFB99150-0532-4CEB-BDA1-8D1C5884E142}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27E23482-CF11-499C-94F9-91C2CFFBB5EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
@@ -3080,8 +3080,8 @@
   <dimension ref="A1:C1033"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A914" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I927" sqref="I927"/>
+      <pane ySplit="1" topLeftCell="A74" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F89" sqref="F89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
